--- a/xlsx-templates/loan.xlsx
+++ b/xlsx-templates/loan.xlsx
@@ -93,6 +93,7 @@
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -100,11 +101,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -113,6 +116,7 @@
       <sz val="20"/>
       <color indexed="8"/>
       <name val="仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -339,80 +343,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11:P11"/>
     </sheetView>
   </sheetViews>
@@ -704,221 +708,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
     </row>
     <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
     </row>
     <row r="3" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="20"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="4"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="17"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="15" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="4"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="12"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="8"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="4"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="1"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
@@ -926,6 +930,15 @@
     <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C8:P9"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="C7:P7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="B4:P4"/>
+    <mergeCell ref="B5:P5"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="F11:H11"/>
@@ -935,15 +948,6 @@
     <mergeCell ref="I11:L11"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="B4:P4"/>
-    <mergeCell ref="B5:P5"/>
-    <mergeCell ref="C8:P9"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="C7:P7"/>
-    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.52" right="0.16" top="0.19685039370078741" bottom="0.15" header="0.19685039370078741" footer="0.15"/>

--- a/xlsx-templates/loan.xlsx
+++ b/xlsx-templates/loan.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="借款单" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">借款单!$B$1:$P$11</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -128,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -333,13 +336,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +364,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,59 +427,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,10 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:P11"/>
+      <selection activeCell="B4" sqref="B4:P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,221 +726,221 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="20"/>
     </row>
     <row r="5" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
     </row>
     <row r="6" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="12"/>
     </row>
     <row r="7" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="9"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="16"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="22"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7" t="s">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8" t="s">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="9"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
     </row>
     <row r="11" spans="1:16" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="10"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.2"/>
@@ -930,6 +948,15 @@
     <row r="16" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="C8:P9"/>
     <mergeCell ref="B6:P6"/>
     <mergeCell ref="C7:P7"/>
@@ -939,18 +966,10 @@
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:P4"/>
     <mergeCell ref="B5:P5"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.52" right="0.16" top="0.19685039370078741" bottom="0.15" header="0.19685039370078741" footer="0.15"/>
-  <pageSetup paperSize="512" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.52" right="0.16" top="0.2" bottom="0.15000000000000002" header="0.2" footer="0.15000000000000002"/>
+  <pageSetup paperSize="28" orientation="landscape" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>